--- a/output/chunk_15_26-02-2024.xlsx
+++ b/output/chunk_15_26-02-2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1956,20 +1956,16 @@
       <c r="B22" t="n">
         <v>4111927</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>256164860978</t>
-        </is>
+      <c r="C22" t="n">
+        <v>256164860978</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>['https://i.ebayimg.com/00/s/NDAwWDMyMg==/z/QE4AAOSwEylkyGuk/$_1.JPG?set_id=8800005007']</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>9886</t>
-        </is>
+      <c r="E22" t="n">
+        <v>9886</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -2014,12 +2010,164 @@
           <t>WIX 51541 Hydraulic Filter</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>75.99</t>
-        </is>
+      <c r="Y22" t="n">
+        <v>75.98999999999999</v>
       </c>
       <c r="Z22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>4112235</v>
+      </c>
+      <c r="C23" t="n">
+        <v>264782007456</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTYyWDY0MA==/z/RicAAOSw7Bte~Lvp/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>42605</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Brakes &amp; Brake Parts:Other Brake Parts</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Dodge</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>4112235; 18P112, C912318, BC-87041, C1494, 157.92824, BC82824, BC</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C92824</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>W300</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Dorman</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>['INTERMEDIATE']</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="n">
+        <v>1978</v>
+      </c>
+      <c r="W23" t="n">
+        <v>434</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Dorman C92824 Parking Brake Cable fits INTERMEDIATE</t>
+        </is>
+      </c>
+      <c r="Y23" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[{'Year': '1989', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 359Cu. In. l6 DIESEL OHV Turbocharged'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 359Cu. In. l6 DIESEL OHV Turbocharged'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 359Cu. In. l6 DIESEL OHV Turbocharged'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 359Cu. In. l6 DIESEL OHV Turbocharged'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 359Cu. In. l6 DIESEL OHV Turbocharged'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 359Cu. In. l6 DIESEL OHV Turbocharged'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 359Cu. In. l6 DIESEL OHV Turbocharged'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 359Cu. In. l6 DIESEL OHV Turbocharged'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 359Cu. In. l6 DIESEL OHV Turbocharged'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 359Cu. In. l6 DIESEL OHV Turbocharged'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 359Cu. In. l6 DIESEL OHV Turbocharged'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 359Cu. In. l6 DIESEL OHV Turbocharged'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1989', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1988', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1988', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1988', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1988', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1988', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1988', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1988', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1988', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1988', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1988', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1988', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1988', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1988', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1988', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1988', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1987', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1986', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Crew Cab Pickup 4-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Crew Cab Pickup 4-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Crew Cab Pickup 4-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Crew Cab Pickup 4-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Crew Cab Pickup 4-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Crew Cab Pickup 4-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Extended Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Extended Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Extended Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1985', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Crew Cab Pickup 4-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Crew Cab Pickup 4-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Crew Cab Pickup 4-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Crew Cab Pickup 4-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Crew Cab Pickup 4-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Crew Cab Pickup 4-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Extended Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Extended Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Extended Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1984', 'Make': 'Dodge', 'Model': 'W350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.2L 5211CC 318Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.2L 5211CC 318Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.2L 5211CC 318Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Crew Cab Pickup 4-Door', 'Engine': '5.2L 5211CC 318Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Crew Cab Pickup 4-Door', 'Engine': '5.2L 5211CC 318Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Crew Cab Pickup 4-Door', 'Engine': '5.2L 5211CC 318Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Crew Cab Pickup 4-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Crew Cab Pickup 4-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Crew Cab Pickup 4-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.2L 5211CC 318Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.2L 5211CC 318Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.2L 5211CC 318Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Cab &amp; Chassis 2-Door', 'Engine': '5.9L 360Cu. In. V8 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard Cab Pickup 2-Door', 'Engine': '3.7L 3687CC 225Cu. In. l6 GAS OHV Naturally Aspirated'}, {'Year': '1983', 'Make': 'Dodge', 'Model': 'D350', 'Trim': 'RD Standard </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>4112506</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>204595958411</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NTAwWDUwMA==/z/XqYAAOSwxyZljZVi/$_1.JPG?set_id=8800005007']</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>33561</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Brakes &amp; Brake Parts:Brake Hoses, Lines &amp; Fittings</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1023692</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>172493B</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>4112506</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>METZGER</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>METZGER 4112506 Brake Hose</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>10.5</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
